--- a/results/I3_N5_M3_T30_C100_DepLowerLeft_s2_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepLowerLeft_s2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.8168650130276</v>
+        <v>614.3672915212159</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7000000476837158</v>
+        <v>1.006999969482422</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.63686501310219</v>
+        <v>58.36729152121585</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.193889246668849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.193889246668849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>232.8899999999254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>321.29</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,39 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -700,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -802,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -907,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13.08913130026197</v>
+        <v>12.27346552285659</v>
       </c>
     </row>
     <row r="4">
@@ -923,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.132299474826734</v>
+        <v>11.34207471385627</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23.8806781421468</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.85780311832207</v>
+        <v>19.67685125555192</v>
       </c>
     </row>
     <row r="8">
@@ -977,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1005,48 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1148,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>73.88999999999214</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
@@ -1159,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>67.72000000000116</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
@@ -1170,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>63.25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -1181,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>71.60499999999229</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
@@ -1192,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>75.36999999999898</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
@@ -1203,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>104.4449999999997</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -1214,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>101.6749999999993</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -1225,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.7150000000001</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -1236,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>104.5350000000006</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -1247,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>101.85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
@@ -1258,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>32.91499999999935</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
@@ -1269,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>33.31999999999971</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
@@ -1280,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.77999999999935</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
@@ -1291,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>36.18499999999935</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
@@ -1302,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
@@ -1313,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000004</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -1324,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4900000000004</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -1335,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000004</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
@@ -1346,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -1357,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000004</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -1368,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>120.5099999999929</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
@@ -1379,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>109.1950000000015</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
@@ -1390,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>101.1749999999993</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30">
@@ -1401,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>111.2599999999929</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1412,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>119.1299999999992</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -1423,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>106.1700000000004</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33">
@@ -1434,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>112.4900000000004</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
@@ -1445,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>102.5700000000004</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35">
@@ -1456,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>110.05</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36">
@@ -1467,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>107.6750000000004</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
@@ -1478,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>104.4449999999997</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
@@ -1489,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>101.6749999999993</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39">
@@ -1500,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>103.7150000000001</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
@@ -1511,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>104.5349999999999</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
@@ -1522,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>101.85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42">
@@ -1533,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>120.5099999999929</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43">
@@ -1544,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>109.1949999999924</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
@@ -1555,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>101.174999999992</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45">
@@ -1566,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>111.2599999999929</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
@@ -1577,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>119.1299999999919</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1624,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6.170000000000371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1635,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>12.49000000000036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1646,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.570000000000363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1657,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1668,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.675000000000367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1679,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4.444999999999709</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1690,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1.674999999999272</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -1701,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>3.715000000000146</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1712,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>4.534999999999854</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -1723,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1.85</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1734,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>20.50999999999294</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -1745,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>9.194999999992433</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -1756,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>1.174999999991996</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>11.25999999999294</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1778,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>19.12999999999192</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1825,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1836,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1847,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1858,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1869,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1880,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1891,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1902,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1913,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1924,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1935,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>8.255000000000001</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1946,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>13.395</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1957,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>11.08</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1968,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>11.465</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1979,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>9.42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -2045,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2056,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2067,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2078,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2089,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2103,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2130,7 +2055,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2141,7 +2066,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2152,7 +2077,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2163,7 +2088,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2174,7 +2099,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2185,7 +2110,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2196,7 +2121,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2207,7 +2132,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2218,7 +2143,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2229,67 +2154,12 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
